--- a/MonPDReborn/wwwroot/TemplateUpload/DB_POTENSI_HOTEL.xlsx
+++ b/MonPDReborn/wwwroot/TemplateUpload/DB_POTENSI_HOTEL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\najib\Downloads\TemplateUpload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Royan\source\repos\MonPDReborn\MonPDReborn\wwwroot\TemplateUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2504E332-4A4A-4B61-9494-A6216534B991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7459A43A-E8DF-48F0-96C0-B3A728135603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0E2F6E7-80BF-49CB-B7CE-E4291EB3295F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F0E2F6E7-80BF-49CB-B7CE-E4291EB3295F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>NOP</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>BANQUET_OMZET</t>
+  </si>
+  <si>
+    <t>POTENSI_PAJAK_TAHUN</t>
   </si>
 </sst>
 </file>
@@ -428,30 +431,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9801D62B-E3D4-4458-B02D-9C0C9E1F8458}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:K432"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -484,6 +488,9 @@
       </c>
       <c r="K1" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/MonPDReborn/wwwroot/TemplateUpload/DB_POTENSI_HOTEL.xlsx
+++ b/MonPDReborn/wwwroot/TemplateUpload/DB_POTENSI_HOTEL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Royan\source\repos\MonPDReborn\MonPDReborn\wwwroot\TemplateUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7459A43A-E8DF-48F0-96C0-B3A728135603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E63817E-844E-4F13-B94C-DE39153A0F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F0E2F6E7-80BF-49CB-B7CE-E4291EB3295F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>NOP</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>POTENSI_PAJAK_TAHUN</t>
+  </si>
+  <si>
+    <t>AVGROOMPRICEKOS</t>
   </si>
 </sst>
 </file>
@@ -431,11 +434,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9801D62B-E3D4-4458-B02D-9C0C9E1F8458}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,10 +455,11 @@
     <col min="10" max="10" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="13" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -491,6 +495,9 @@
       </c>
       <c r="L1" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
